--- a/public/asset-import-template.xlsx
+++ b/public/asset-import-template.xlsx
@@ -1,59 +1,381 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+  </bookViews>
   <sheets>
-    <sheet name="Assets" sheetId="1" r:id="rId1"/>
+    <sheet name="Asset Import Template" sheetId="1" r:id="rId4"/>
+    <sheet name="Instructions" sheetId="2" r:id="rId5"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>serial_number</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>purchase_date</t>
+  </si>
+  <si>
+    <t>purchase_price</t>
+  </si>
+  <si>
+    <t>depreciation</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>warranty</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>health_score</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>Sample Asset 1</t>
+  </si>
+  <si>
+    <t>Office computer for accounting department</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>SN001</t>
+  </si>
+  <si>
+    <t>Dell OptiPlex</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>2024-01-15</t>
+  </si>
+  <si>
+    <t>Main Office</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>3 years</t>
+  </si>
+  <si>
+    <t>Company policy</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Computer, Office, IT</t>
+  </si>
+  <si>
+    <t>Executive Desk</t>
+  </si>
+  <si>
+    <t>High-quality executive desk for management</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Desk</t>
+  </si>
+  <si>
+    <t>SN002</t>
+  </si>
+  <si>
+    <t>Executive Desk Pro</t>
+  </si>
+  <si>
+    <t>OfficeMax</t>
+  </si>
+  <si>
+    <t>2024-02-20</t>
+  </si>
+  <si>
+    <t>Conference Room</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>1 year</t>
+  </si>
+  <si>
+    <t>Furniture, Desk, Executive</t>
+  </si>
+  <si>
+    <t>Company Vehicle</t>
+  </si>
+  <si>
+    <t>Toyota Camry for business travel</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>SN003</t>
+  </si>
+  <si>
+    <t>Toyota Camry</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>2024-03-10</t>
+  </si>
+  <si>
+    <t>Parking Lot</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>5 years</t>
+  </si>
+  <si>
+    <t>Auto insurance</t>
+  </si>
+  <si>
+    <t>Vehicle, Car, Transport</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Validation Rules</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Asset name</t>
+  </si>
+  <si>
+    <t>Max 100 characters</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Asset description</t>
+  </si>
+  <si>
+    <t>Max 500 characters</t>
+  </si>
+  <si>
+    <t>Asset category</t>
+  </si>
+  <si>
+    <t>Max 255 characters, auto-created if not exists</t>
+  </si>
+  <si>
+    <t>Asset type</t>
+  </si>
+  <si>
+    <t>Serial number</t>
+  </si>
+  <si>
+    <t>Max 255 characters, unique per company</t>
+  </si>
+  <si>
+    <t>Asset model</t>
+  </si>
+  <si>
+    <t>Max 255 characters</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Purchase date</t>
+  </si>
+  <si>
+    <t>Format: YYYY-MM-DD, not in future</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Purchase price</t>
+  </si>
+  <si>
+    <t>Min 0.01</t>
+  </si>
+  <si>
+    <t>Depreciation value</t>
+  </si>
+  <si>
+    <t>Any numeric value</t>
+  </si>
+  <si>
+    <t>Location name</t>
+  </si>
+  <si>
+    <t>Max 255 characters, must exist</t>
+  </si>
+  <si>
+    <t>Department name</t>
+  </si>
+  <si>
+    <t>Warranty information</t>
+  </si>
+  <si>
+    <t>Insurance information</t>
+  </si>
+  <si>
+    <t>Health score</t>
+  </si>
+  <si>
+    <t>0-100 range</t>
+  </si>
+  <si>
+    <t>Asset status</t>
+  </si>
+  <si>
+    <t>Max 50 characters, auto-created if not exists</t>
+  </si>
+  <si>
+    <t>Comma-separated tags</t>
+  </si>
+  <si>
+    <t>Max 255 characters each, auto-created if not exists</t>
+  </si>
+  <si>
+    <t>IMPORTANT NOTES:</t>
+  </si>
+  <si>
+    <t>1. Only "name" field is required. All other fields are optional.</t>
+  </si>
+  <si>
+    <t>2. Locations must exist before import. Create them manually if needed.</t>
+  </si>
+  <si>
+    <t>3. Categories, types, departments, statuses, and tags will be auto-created if they don't exist.</t>
+  </si>
+  <si>
+    <t>4. Serial numbers must be unique within your company.</t>
+  </si>
+  <si>
+    <t>5. Purchase dates cannot be in the future.</t>
+  </si>
+  <si>
+    <t>6. Health score must be between 0 and 100.</t>
+  </si>
+  <si>
+    <t>7. Tags should be comma-separated (e.g., "Computer, Office, IT").</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -61,19 +383,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="4">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -222,16 +580,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -353,190 +715,658 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A2" sqref="A2:Q4"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="true" style="0"/>
+    <col min="2" max="2" width="30" customWidth="true" style="0"/>
+    <col min="3" max="3" width="15" customWidth="true" style="0"/>
+    <col min="4" max="4" width="15" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15" customWidth="true" style="0"/>
+    <col min="6" max="6" width="20" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15" customWidth="true" style="0"/>
+    <col min="8" max="8" width="15" customWidth="true" style="0"/>
+    <col min="9" max="9" width="15" customWidth="true" style="0"/>
+    <col min="10" max="10" width="15" customWidth="true" style="0"/>
+    <col min="11" max="11" width="15" customWidth="true" style="0"/>
+    <col min="12" max="12" width="15" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15" customWidth="true" style="0"/>
+    <col min="14" max="14" width="20" customWidth="true" style="0"/>
+    <col min="15" max="15" width="15" customWidth="true" style="0"/>
+    <col min="16" max="16" width="15" customWidth="true" style="0"/>
+    <col min="17" max="17" width="25" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <v>Asset ID</v>
-      </c>
-      <c r="C1" s="1" t="str">
-        <v>Description</v>
-      </c>
-      <c r="D1" s="1" t="str">
-        <v>Status</v>
-      </c>
-      <c r="E1" s="1" t="str">
-        <v>Asset Type</v>
-      </c>
-      <c r="F1" s="1" t="str">
-        <v>Category</v>
-      </c>
-      <c r="G1" s="1" t="str">
-        <v>Location</v>
-      </c>
-      <c r="H1" s="1" t="str">
-        <v>Department</v>
-      </c>
-      <c r="I1" s="1" t="str">
-        <v>Purchase Cost</v>
-      </c>
-      <c r="J1" s="1" t="str">
-        <v>Purchase Date</v>
-      </c>
-      <c r="K1" s="1" t="str">
-        <v>Warranty Expires</v>
-      </c>
-      <c r="L1" s="1" t="str">
-        <v>Model</v>
-      </c>
-      <c r="M1" s="1" t="str">
-        <v>Serial Number</v>
-      </c>
-      <c r="N1" s="1" t="str">
-        <v>Manufacturer</v>
-      </c>
-      <c r="O1" s="1" t="str">
-        <v>Brand</v>
-      </c>
-      <c r="P1" s="1" t="str">
-        <v>Tags</v>
-      </c>
-      <c r="Q1" s="1" t="str">
-        <v>Supplier</v>
-      </c>
-      <c r="R1" s="1" t="str">
-        <v>Useful Life</v>
-      </c>
-      <c r="S1" s="1" t="str">
-        <v>Depreciation Method</v>
-      </c>
-      <c r="T1" s="1" t="str">
-        <v>Warranty Period</v>
-      </c>
-      <c r="U1" s="1" t="str">
-        <v>Health Score</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="str">
-        <v>Sample Asset 1</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>AST-001</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>Sample asset description</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <v>Active</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <v>Equipment</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <v>General</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <v>Main Floor</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <v>Operations</v>
-      </c>
-      <c r="I2" s="1" t="str">
-        <v>15000</v>
-      </c>
-      <c r="J2" s="1" t="str">
-        <v>2024-01-15</v>
-      </c>
-      <c r="K2" s="1" t="str">
-        <v>2027-01-15</v>
-      </c>
-      <c r="L2" s="1" t="str">
-        <v>Model-123</v>
-      </c>
-      <c r="M2" s="1" t="str">
-        <v>SN123456</v>
-      </c>
-      <c r="N2" s="1" t="str">
-        <v>Sample Manufacturer</v>
-      </c>
-      <c r="O2" s="1" t="str">
-        <v>Sample Brand</v>
-      </c>
-      <c r="P2" s="1" t="str">
-        <v>Critical, High-Value</v>
-      </c>
-      <c r="Q2" s="1" t="str">
-        <v>Sample Supplier</v>
-      </c>
-      <c r="R2" s="1" t="str">
-        <v>10 years</v>
-      </c>
-      <c r="S2" s="1" t="str">
-        <v>Straight Line</v>
-      </c>
-      <c r="T2" s="1" t="str">
-        <v>3 years</v>
-      </c>
-      <c r="U2" s="1" t="str">
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1200.0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2">
+        <v>95</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="2">
+        <v>800.0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="2">
+        <v>90</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2">
+        <v>25000.0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2000.0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="2">
+        <v>85</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="whole" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="O2:O1000">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="P2:P1000">
+      <formula1>"Active,Inactive,Maintenance,Retired,Disposed"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A20" sqref="A20:A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="113.115" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="25.851" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="61.271" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
         <v>100</v>
       </c>
     </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:U2"/>
-  </ignoredErrors>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>